--- a/Section06/activities/SalesData_exercise.xlsx
+++ b/Section06/activities/SalesData_exercise.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section06\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F8AEC-5924-4C1B-BB03-0D47EF5AF70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C47F53-74CE-4510-AA8A-DD5E461E3B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="17496" windowHeight="10416" activeTab="1" xr2:uid="{359FC73B-D3CD-48B1-8120-A543E5924449}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" xr2:uid="{359FC73B-D3CD-48B1-8120-A543E5924449}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Instructions" sheetId="2" r:id="rId2"/>
+    <sheet name="Instructions" sheetId="5" r:id="rId1"/>
+    <sheet name="Sales Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Homework Instructions" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Query1">'Sales Data'!$A$1:$K$2156</definedName>
@@ -24,20 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8645" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8668" uniqueCount="304">
   <si>
     <t>EmployeeID</t>
   </si>
@@ -870,9 +863,6 @@
     <t>Step</t>
   </si>
   <si>
-    <t>Instruction</t>
-  </si>
-  <si>
     <t>Change the sheet name to Alfreds</t>
   </si>
   <si>
@@ -904,6 +894,54 @@
   </si>
   <si>
     <t>Select all sales data and create a pivot table (Shft + Ctrl + End)</t>
+  </si>
+  <si>
+    <t>Select [**Insert**]</t>
+  </si>
+  <si>
+    <t>Select [**PivotTable**]</t>
+  </si>
+  <si>
+    <t>Table/Range should be picked already</t>
+  </si>
+  <si>
+    <t>Save as a new Worksheet</t>
+  </si>
+  <si>
+    <t>Change the sheet name to "Trujiullo"</t>
+  </si>
+  <si>
+    <t>In the Pivot Fileds panel, select: [**CompanyName**, **ProductName**, **UnitPrice**, **Quantity** and **SubTotal**]</t>
+  </si>
+  <si>
+    <t>On the spreadsheet select the [**Row Labels**] drop down, remove the "select all" tick, select [**Ana Trujiullo**], press [**Ok**]</t>
+  </si>
+  <si>
+    <t>Make sure table is selected</t>
+  </si>
+  <si>
+    <t>Select [**Pivot Charts**]</t>
+  </si>
+  <si>
+    <t>select the chart and pres OK</t>
+  </si>
+  <si>
+    <t>Position and size your chart.</t>
+  </si>
+  <si>
+    <t>Homework Instruction</t>
+  </si>
+  <si>
+    <t>On the spreadsheet select the [**Row Labels**] drop down, remove the "select all" tick, select [**Alfreds Futterkiste**], press [**Ok**]</t>
+  </si>
+  <si>
+    <t>select a chart of your choise and pres OK</t>
+  </si>
+  <si>
+    <t>Save the workbook and compare your workbook to the solution that we've provided.</t>
+  </si>
+  <si>
+    <t>Instruction to insert a Pivot Chart</t>
   </si>
 </sst>
 </file>
@@ -995,21 +1033,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1317,13 +1355,307 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C780656-FA81-4F9E-BF61-FC3457A16189}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38995B4-D644-42EA-A7D6-CE65BCFB33E0}">
   <dimension ref="A1:L2156"/>
   <sheetViews>
@@ -85433,44 +85765,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDEA7A4-64D1-47B2-A8BA-FD827D3D9788}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="6.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -85483,11 +85815,11 @@
       <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -85500,11 +85832,11 @@
       <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>279</v>
+      <c r="B4" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -85517,11 +85849,11 @@
       <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -85534,11 +85866,11 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -85551,11 +85883,11 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -85568,28 +85900,28 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -85602,11 +85934,11 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -85619,11 +85951,11 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -85636,11 +85968,11 @@
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -85652,9 +85984,130 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
     </row>
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B12:K12"/>
+  <mergeCells count="19">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B3:K3"/>
@@ -85664,8 +86117,13 @@
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
